--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H2">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N2">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O2">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P2">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q2">
-        <v>24.75368928569656</v>
+        <v>13.51072619451111</v>
       </c>
       <c r="R2">
-        <v>222.783203571269</v>
+        <v>121.5965357506</v>
       </c>
       <c r="S2">
-        <v>0.02721462061045041</v>
+        <v>0.01709010567911682</v>
       </c>
       <c r="T2">
-        <v>0.02721462061045041</v>
+        <v>0.01709010567911682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H3">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.399086</v>
       </c>
       <c r="O3">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P3">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q3">
-        <v>47.50790080561089</v>
+        <v>45.77158221702223</v>
       </c>
       <c r="R3">
-        <v>427.5711072504981</v>
+        <v>411.9442399532001</v>
       </c>
       <c r="S3">
-        <v>0.05223098187512173</v>
+        <v>0.0578977892030029</v>
       </c>
       <c r="T3">
-        <v>0.05223098187512173</v>
+        <v>0.0578977892030029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H4">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N4">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O4">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P4">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q4">
-        <v>45.46131675478022</v>
+        <v>28.45513837313333</v>
       </c>
       <c r="R4">
-        <v>409.151850793022</v>
+        <v>256.0962453582</v>
       </c>
       <c r="S4">
-        <v>0.04998093309055777</v>
+        <v>0.03599372194429536</v>
       </c>
       <c r="T4">
-        <v>0.04998093309055776</v>
+        <v>0.03599372194429536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H5">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N5">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O5">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P5">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q5">
-        <v>51.27059314260823</v>
+        <v>49.74087610151111</v>
       </c>
       <c r="R5">
-        <v>461.4353382834741</v>
+        <v>447.6678849136</v>
       </c>
       <c r="S5">
-        <v>0.0563677488533031</v>
+        <v>0.06291866306135599</v>
       </c>
       <c r="T5">
-        <v>0.0563677488533031</v>
+        <v>0.06291866306135599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N6">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O6">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P6">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q6">
-        <v>52.33226554015534</v>
+        <v>29.64682635390866</v>
       </c>
       <c r="R6">
-        <v>470.9903898613981</v>
+        <v>266.821437185178</v>
       </c>
       <c r="S6">
-        <v>0.05753496926955545</v>
+        <v>0.03750112230418555</v>
       </c>
       <c r="T6">
-        <v>0.05753496926955544</v>
+        <v>0.03750112230418556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.399086</v>
       </c>
       <c r="O7">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P7">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q7">
         <v>100.4373954734573</v>
@@ -883,10 +883,10 @@
         <v>903.9365592611161</v>
       </c>
       <c r="S7">
-        <v>0.1104225548508979</v>
+        <v>0.1270461467477579</v>
       </c>
       <c r="T7">
-        <v>0.1104225548508979</v>
+        <v>0.1270461467477579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N8">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O8">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P8">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q8">
-        <v>96.11067153496933</v>
+        <v>62.439615315974</v>
       </c>
       <c r="R8">
-        <v>864.996043814724</v>
+        <v>561.956537843766</v>
       </c>
       <c r="S8">
-        <v>0.1056656820828396</v>
+        <v>0.07898166308387761</v>
       </c>
       <c r="T8">
-        <v>0.1056656820828396</v>
+        <v>0.07898166308387762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N9">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O9">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P9">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q9">
-        <v>108.3921779809453</v>
+        <v>109.1472875138187</v>
       </c>
       <c r="R9">
-        <v>975.5296018285081</v>
+        <v>982.325587624368</v>
       </c>
       <c r="S9">
-        <v>0.1191681759775647</v>
+        <v>0.138063539394198</v>
       </c>
       <c r="T9">
-        <v>0.1191681759775647</v>
+        <v>0.138063539394198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H10">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N10">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O10">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P10">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q10">
-        <v>18.82147903079767</v>
+        <v>13.20977782433711</v>
       </c>
       <c r="R10">
-        <v>169.393311277179</v>
+        <v>118.888000419034</v>
       </c>
       <c r="S10">
-        <v>0.02069264929517729</v>
+        <v>0.01670942744049474</v>
       </c>
       <c r="T10">
-        <v>0.02069264929517728</v>
+        <v>0.01670942744049474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H11">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.399086</v>
       </c>
       <c r="O11">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P11">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q11">
-        <v>36.12265422296866</v>
+        <v>44.75203057559422</v>
       </c>
       <c r="R11">
-        <v>325.103888006718</v>
+        <v>402.768275180348</v>
       </c>
       <c r="S11">
-        <v>0.03971385108597213</v>
+        <v>0.05660812904362519</v>
       </c>
       <c r="T11">
-        <v>0.03971385108597212</v>
+        <v>0.0566081290436252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H12">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N12">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O12">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P12">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q12">
-        <v>34.56653309884467</v>
+        <v>27.82130660175533</v>
       </c>
       <c r="R12">
-        <v>311.098797889602</v>
+        <v>250.3917594157979</v>
       </c>
       <c r="S12">
-        <v>0.03800302545799541</v>
+        <v>0.03519196992892015</v>
       </c>
       <c r="T12">
-        <v>0.03800302545799539</v>
+        <v>0.03519196992892016</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H13">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N13">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O13">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P13">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q13">
-        <v>38.98361907159267</v>
+        <v>48.6329093365671</v>
       </c>
       <c r="R13">
-        <v>350.852571644334</v>
+        <v>437.696184029104</v>
       </c>
       <c r="S13">
-        <v>0.04285924376003009</v>
+        <v>0.06151716407238713</v>
       </c>
       <c r="T13">
-        <v>0.04285924376003007</v>
+        <v>0.06151716407238714</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H14">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.021894333333333</v>
+        <v>1.711937666666667</v>
       </c>
       <c r="N14">
-        <v>9.065683</v>
+        <v>5.135813</v>
       </c>
       <c r="O14">
-        <v>0.1464771679819186</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="P14">
-        <v>0.1464771679819185</v>
+        <v>0.09827532014408574</v>
       </c>
       <c r="Q14">
-        <v>37.32427109979822</v>
+        <v>21.32504713940378</v>
       </c>
       <c r="R14">
-        <v>335.918439898184</v>
+        <v>191.925424254634</v>
       </c>
       <c r="S14">
-        <v>0.04103492880673543</v>
+        <v>0.02697466472028863</v>
       </c>
       <c r="T14">
-        <v>0.04103492880673541</v>
+        <v>0.02697466472028863</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H15">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.399086</v>
       </c>
       <c r="O15">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="P15">
-        <v>0.2811226515149324</v>
+        <v>0.3329367223581701</v>
       </c>
       <c r="Q15">
-        <v>71.63367644254757</v>
+        <v>72.24490633372756</v>
       </c>
       <c r="R15">
-        <v>644.7030879829281</v>
+        <v>650.2041570035481</v>
       </c>
       <c r="S15">
-        <v>0.07875526370294074</v>
+        <v>0.09138465736378405</v>
       </c>
       <c r="T15">
-        <v>0.07875526370294073</v>
+        <v>0.09138465736378407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H16">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.549851333333333</v>
+        <v>3.605537</v>
       </c>
       <c r="N16">
-        <v>16.649554</v>
+        <v>10.816611</v>
       </c>
       <c r="O16">
-        <v>0.2690122209305161</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="P16">
-        <v>0.269012220930516</v>
+        <v>0.2069790915087912</v>
       </c>
       <c r="Q16">
-        <v>68.5477825759769</v>
+        <v>44.91299419655533</v>
       </c>
       <c r="R16">
-        <v>616.930043183792</v>
+        <v>404.216947768998</v>
       </c>
       <c r="S16">
-        <v>0.07536258029912328</v>
+        <v>0.05681173655169802</v>
       </c>
       <c r="T16">
-        <v>0.07536258029912325</v>
+        <v>0.05681173655169804</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H17">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.259039333333334</v>
+        <v>6.302642666666666</v>
       </c>
       <c r="N17">
-        <v>18.777118</v>
+        <v>18.907928</v>
       </c>
       <c r="O17">
-        <v>0.303387959572633</v>
+        <v>0.3618088659889531</v>
       </c>
       <c r="P17">
-        <v>0.303387959572633</v>
+        <v>0.361808865988953</v>
       </c>
       <c r="Q17">
-        <v>77.30716402778491</v>
+        <v>78.50995663363378</v>
       </c>
       <c r="R17">
-        <v>695.7644762500641</v>
+        <v>706.589609702704</v>
       </c>
       <c r="S17">
-        <v>0.08499279098173521</v>
+        <v>0.09930949946101184</v>
       </c>
       <c r="T17">
-        <v>0.08499279098173519</v>
+        <v>0.09930949946101184</v>
       </c>
     </row>
   </sheetData>
